--- a/secteur-action-publique/jeunesse-culture-engagement/departements/barometre-resultats-jeunesse-culture-engagement-departements-detail.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/departements/barometre-resultats-jeunesse-culture-engagement-departements-detail.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="332">
   <si>
     <t>mesure</t>
   </si>
@@ -254,58 +254,37 @@
     <t>2386.0</t>
   </si>
   <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2599.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2996.0</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
     <t>Côtes-d'Armor</t>
   </si>
   <si>
-    <t>523.0</t>
-  </si>
-  <si>
-    <t>655.0</t>
-  </si>
-  <si>
-    <t>1212.0</t>
-  </si>
-  <si>
-    <t>1905.0</t>
-  </si>
-  <si>
-    <t>2577.0</t>
-  </si>
-  <si>
-    <t>3148.0</t>
-  </si>
-  <si>
-    <t>3418.0</t>
-  </si>
-  <si>
-    <t>4146.0</t>
-  </si>
-  <si>
-    <t>4485.0</t>
-  </si>
-  <si>
-    <t>4781.0</t>
-  </si>
-  <si>
-    <t>5055.0</t>
-  </si>
-  <si>
-    <t>5445.0</t>
-  </si>
-  <si>
-    <t>5921.0</t>
-  </si>
-  <si>
-    <t>6349.0</t>
-  </si>
-  <si>
     <t>6851.0</t>
   </si>
   <si>
-    <t>7312.0</t>
+    <t>8111.0</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>8920.0</t>
+  </si>
+  <si>
+    <t>9374.0</t>
   </si>
   <si>
     <t>25</t>
@@ -359,12 +338,21 @@
     <t>3273.0</t>
   </si>
   <si>
-    <t>3881.0</t>
+    <t>3880.0</t>
   </si>
   <si>
     <t>4504.0</t>
   </si>
   <si>
+    <t>5252.0</t>
+  </si>
+  <si>
+    <t>6065.0</t>
+  </si>
+  <si>
+    <t>6423.0</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
@@ -440,12 +428,18 @@
     <t>12610.0</t>
   </si>
   <si>
-    <t>13606.0</t>
+    <t>13613.0</t>
   </si>
   <si>
     <t>14622.0</t>
   </si>
   <si>
+    <t>16066.0</t>
+  </si>
+  <si>
+    <t>18016.0</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
@@ -506,12 +500,18 @@
     <t>9113.0</t>
   </si>
   <si>
-    <t>10868.0</t>
+    <t>10871.0</t>
   </si>
   <si>
     <t>12416.0</t>
   </si>
   <si>
+    <t>13767.0</t>
+  </si>
+  <si>
+    <t>16202.0</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -563,12 +563,21 @@
     <t>14132.0</t>
   </si>
   <si>
-    <t>15715.0</t>
+    <t>15724.0</t>
   </si>
   <si>
     <t>17184.0</t>
   </si>
   <si>
+    <t>18977.0</t>
+  </si>
+  <si>
+    <t>20794.0</t>
+  </si>
+  <si>
+    <t>21784.0</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
@@ -623,12 +632,21 @@
     <t>8486.0</t>
   </si>
   <si>
-    <t>9271.0</t>
+    <t>9274.0</t>
   </si>
   <si>
     <t>10015.0</t>
   </si>
   <si>
+    <t>11076.0</t>
+  </si>
+  <si>
+    <t>12123.0</t>
+  </si>
+  <si>
+    <t>12741.0</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
@@ -683,6 +701,12 @@
     <t>1232.0</t>
   </si>
   <si>
+    <t>1407.0</t>
+  </si>
+  <si>
+    <t>1584.0</t>
+  </si>
+  <si>
     <t>67</t>
   </si>
   <si>
@@ -746,12 +770,18 @@
     <t>8348.0</t>
   </si>
   <si>
-    <t>10057.0</t>
+    <t>10059.0</t>
   </si>
   <si>
     <t>11442.0</t>
   </si>
   <si>
+    <t>12862.0</t>
+  </si>
+  <si>
+    <t>15368.0</t>
+  </si>
+  <si>
     <t>71</t>
   </si>
   <si>
@@ -806,6 +836,15 @@
     <t>2685.0</t>
   </si>
   <si>
+    <t>3047.0</t>
+  </si>
+  <si>
+    <t>3553.0</t>
+  </si>
+  <si>
+    <t>3878.0</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
@@ -860,6 +899,12 @@
     <t>2721.0</t>
   </si>
   <si>
+    <t>3084.0</t>
+  </si>
+  <si>
+    <t>3936.0</t>
+  </si>
+  <si>
     <t>93</t>
   </si>
   <si>
@@ -923,12 +968,18 @@
     <t>11140.0</t>
   </si>
   <si>
-    <t>13020.0</t>
+    <t>13024.0</t>
   </si>
   <si>
     <t>15159.0</t>
   </si>
   <si>
+    <t>17552.0</t>
+  </si>
+  <si>
+    <t>21537.0</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
@@ -974,12 +1025,18 @@
     <t>7704.0</t>
   </si>
   <si>
-    <t>9288.0</t>
+    <t>9290.0</t>
   </si>
   <si>
     <t>11079.0</t>
   </si>
   <si>
+    <t>12788.0</t>
+  </si>
+  <si>
+    <t>15708.0</t>
+  </si>
+  <si>
     <t>973</t>
   </si>
   <si>
@@ -1047,6 +1104,12 @@
   </si>
   <si>
     <t>1164.0</t>
+  </si>
+  <si>
+    <t>1235.0</t>
+  </si>
+  <si>
+    <t>1347.0</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1621,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1601,16 +1664,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1627,16 +1690,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1653,16 +1716,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1679,330 +1742,18 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2037,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2080,16 +1831,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2106,16 +1857,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2132,16 +1883,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2158,16 +1909,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2184,16 +1935,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2210,16 +1961,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2236,16 +1987,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -2262,10 +2013,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -2288,16 +2039,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2314,16 +2065,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -2340,16 +2091,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -2366,16 +2117,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -2392,16 +2143,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -2418,16 +2169,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -2444,16 +2195,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -2470,16 +2221,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -2496,18 +2247,96 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2554,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2597,16 +2426,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2623,16 +2452,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2649,16 +2478,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2675,16 +2504,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2701,16 +2530,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2727,16 +2556,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2753,16 +2582,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -2779,16 +2608,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -2805,16 +2634,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2831,16 +2660,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -2857,16 +2686,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -2883,16 +2712,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -2909,16 +2738,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -2935,16 +2764,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -2961,16 +2790,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -2987,16 +2816,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -3013,16 +2842,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -3039,16 +2868,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -3065,16 +2894,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -3091,16 +2920,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -3117,18 +2946,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3223,7 +3104,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3266,16 +3147,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
         <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>112</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3292,16 +3173,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
         <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3318,16 +3199,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3344,16 +3225,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3370,16 +3251,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -3396,16 +3277,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -3422,16 +3303,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -3448,16 +3329,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -3474,16 +3355,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -3500,16 +3381,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -3526,16 +3407,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -3552,16 +3433,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -3578,16 +3459,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -3604,16 +3485,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -3630,16 +3511,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -3656,16 +3537,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -3682,16 +3563,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -3708,16 +3589,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -3734,16 +3615,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -3760,16 +3641,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -3786,18 +3667,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
         <v>131</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3808,7 +3741,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3857,7 +3790,7 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>134</v>
@@ -3883,7 +3816,7 @@
         <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>134</v>
@@ -3909,7 +3842,7 @@
         <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>134</v>
@@ -3935,7 +3868,7 @@
         <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
@@ -3961,7 +3894,7 @@
         <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>134</v>
@@ -4383,6 +4316,84 @@
         <v>150</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4657,7 +4668,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4700,16 +4711,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4726,16 +4737,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4752,16 +4763,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4778,16 +4789,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4804,16 +4815,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -4830,16 +4841,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -4856,16 +4867,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -4882,16 +4893,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -4908,16 +4919,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -4934,16 +4945,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -4960,16 +4971,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -4986,16 +4997,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -5012,16 +5023,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -5038,16 +5049,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -5064,16 +5075,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -5090,16 +5101,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -5116,16 +5127,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -5142,16 +5153,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -5168,16 +5179,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -5194,16 +5205,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -5220,18 +5231,96 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5254,7 +5343,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5297,16 +5386,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5323,16 +5412,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5349,16 +5438,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5375,16 +5464,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5401,16 +5490,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -5427,16 +5516,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -5453,16 +5542,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -5479,16 +5568,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -5505,16 +5594,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -5531,16 +5620,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -5557,16 +5646,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -5583,16 +5672,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -5609,16 +5698,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -5635,16 +5724,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -5661,16 +5750,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -5687,18 +5776,96 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5817,7 +5984,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5860,16 +6027,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5886,16 +6053,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5912,16 +6079,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5938,16 +6105,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5964,16 +6131,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -5990,16 +6157,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -6016,16 +6183,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -6042,16 +6209,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -6068,16 +6235,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -6094,16 +6261,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -6120,16 +6287,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -6146,16 +6313,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -6172,16 +6339,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -6198,16 +6365,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -6224,16 +6391,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -6250,16 +6417,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -6276,16 +6443,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -6302,16 +6469,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -6328,16 +6495,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -6354,16 +6521,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -6380,18 +6547,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6450,7 +6669,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6493,16 +6712,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6519,16 +6738,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6545,16 +6764,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6571,16 +6790,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6597,16 +6816,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6623,16 +6842,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -6649,16 +6868,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -6675,16 +6894,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -6701,16 +6920,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -6727,16 +6946,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -6753,16 +6972,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -6779,16 +6998,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -6805,16 +7024,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -6831,16 +7050,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -6857,16 +7076,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -6883,18 +7102,96 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6989,7 +7286,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7434,6 +7731,58 @@
         <v>45</v>
       </c>
       <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7504,7 +7853,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7547,16 +7896,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -7573,16 +7922,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -7599,16 +7948,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -7625,16 +7974,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7651,16 +8000,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -7677,16 +8026,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -7703,16 +8052,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -7729,16 +8078,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -7755,16 +8104,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -7781,16 +8130,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -7807,16 +8156,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -7833,16 +8182,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -7859,16 +8208,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F14" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -7885,16 +8234,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -7911,16 +8260,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -7937,16 +8286,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F17" t="s">
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -7963,18 +8312,70 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8093,7 +8494,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8136,16 +8537,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -8162,16 +8563,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -8188,16 +8589,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -8214,16 +8615,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -8240,16 +8641,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -8266,16 +8667,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -8292,16 +8693,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -8318,16 +8719,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -8344,16 +8745,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -8370,16 +8771,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -8396,16 +8797,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -8422,16 +8823,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -8448,16 +8849,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -8474,16 +8875,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -8500,16 +8901,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -8526,16 +8927,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -8552,16 +8953,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -8578,16 +8979,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -8604,16 +9005,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -8630,16 +9031,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -8656,18 +9057,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8678,7 +9131,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8721,16 +9174,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -8747,16 +9200,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -8773,16 +9226,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -8799,16 +9252,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -8825,16 +9278,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -8851,16 +9304,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -8877,10 +9330,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -8903,16 +9356,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -8929,16 +9382,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -8955,16 +9408,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -8981,16 +9434,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -9007,16 +9460,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -9033,16 +9486,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -9059,16 +9512,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -9085,16 +9538,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -9111,16 +9564,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -9137,16 +9590,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -9163,16 +9616,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -9189,16 +9642,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -9215,16 +9668,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -9241,18 +9694,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9299,7 +9804,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9342,16 +9847,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -9368,16 +9873,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -9394,16 +9899,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -9420,16 +9925,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -9446,16 +9951,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -9472,16 +9977,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -9498,16 +10003,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -9524,16 +10029,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -9550,16 +10055,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -9576,16 +10081,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -9602,16 +10107,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -9628,16 +10133,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E13" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -9654,16 +10159,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E14" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -9680,16 +10185,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -9706,16 +10211,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E16" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -9732,16 +10237,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E17" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -9758,16 +10263,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E18" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -9784,16 +10289,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E19" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -9810,16 +10315,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E20" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -9836,16 +10341,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E21" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -9862,18 +10367,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E22" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>330</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
